--- a/trunk/04.系统设计/通讯定义.xlsx
+++ b/trunk/04.系统设计/通讯定义.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19200" windowHeight="8715"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19200" windowHeight="8715" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="219">
   <si>
     <t>序号</t>
   </si>
@@ -129,10 +130,6 @@
     <t>如04为04H</t>
   </si>
   <si>
-    <t>CRC16</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>CRC16效验码</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -186,10 +183,6 @@
   </si>
   <si>
     <t>0x05</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmd_Test</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -981,12 +974,40 @@
     <t>最长400个，最后一包小于等于400</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>CRC16</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmd_Test</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数1个字节貌似不够</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP地址的存储方式</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>广播信息长度 天气预报信息长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品型号的长度</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,6 +1077,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1106,7 +1135,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1128,14 +1157,59 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1144,52 +1218,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1490,17 +1522,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="22.375" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
-    <col min="5" max="5" width="31.625" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="37.625" customWidth="1"/>
+    <col min="6" max="6" width="20.375" customWidth="1"/>
+    <col min="7" max="7" width="40.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1508,14 +1540,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1523,11 +1555,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2"/>
     </row>
@@ -1536,14 +1568,14 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1551,14 +1583,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1566,11 +1598,11 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -1620,7 +1652,7 @@
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1644,16 +1676,16 @@
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="16" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="6">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="23" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1661,14 +1693,14 @@
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="6">
@@ -1696,17 +1728,17 @@
         <v>1</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="7">
+      <c r="A15" s="23">
         <v>8</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="6">
@@ -1715,13 +1747,13 @@
       <c r="D15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="23" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="7"/>
-      <c r="B16" s="20" t="s">
+      <c r="A16" s="23"/>
+      <c r="B16" s="15" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="6">
@@ -1730,11 +1762,11 @@
       <c r="D16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="23"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="7"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="23"/>
+      <c r="B17" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="6">
@@ -1743,11 +1775,11 @@
       <c r="D17" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="23"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="7"/>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="23"/>
+      <c r="B18" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C18" s="6">
@@ -1756,11 +1788,11 @@
       <c r="D18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="7"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="23"/>
+      <c r="B19" s="15" t="s">
         <v>16</v>
       </c>
       <c r="C19" s="6">
@@ -1769,11 +1801,11 @@
       <c r="D19" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="23"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="7"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="15" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="6">
@@ -1782,11 +1814,11 @@
       <c r="D20" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="23"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="7"/>
-      <c r="B21" s="20" t="s">
+      <c r="A21" s="23"/>
+      <c r="B21" s="15" t="s">
         <v>18</v>
       </c>
       <c r="C21" s="6">
@@ -1795,7 +1827,7 @@
       <c r="D21" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="23"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6">
@@ -1809,287 +1841,288 @@
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>10</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C23" s="7">
+        <v>2</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="8">
-        <v>2</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="10"/>
+      <c r="B26" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="9"/>
+      <c r="B27" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="11"/>
-      <c r="B26" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="9"/>
+      <c r="B28" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="10"/>
-      <c r="B27" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="D27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="10"/>
-      <c r="B28" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" t="s">
-        <v>79</v>
-      </c>
-    </row>
     <row r="29" spans="1:7">
-      <c r="B29" s="10"/>
+      <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G30" s="12"/>
+        <v>69</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>195</v>
+      </c>
+      <c r="G30" s="26"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="C31" t="s">
         <v>40</v>
       </c>
-      <c r="C31" t="s">
-        <v>41</v>
-      </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G31" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
         <v>1</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>50</v>
+      <c r="B32" s="22" t="s">
+        <v>213</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G32" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
         <v>2</v>
       </c>
-      <c r="B33" s="17" t="s">
-        <v>51</v>
+      <c r="B33" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F33" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G33" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
         <v>3</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>42</v>
+      <c r="B34" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="G34" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
         <v>4</v>
       </c>
-      <c r="B35" s="17" t="s">
-        <v>43</v>
+      <c r="B35" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
+        <v>52</v>
+      </c>
+      <c r="E35" s="24"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
         <v>5</v>
       </c>
-      <c r="B36" s="17" t="s">
-        <v>44</v>
+      <c r="B36" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
+        <v>53</v>
+      </c>
+      <c r="E36" s="24"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
         <v>6</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C37" t="s">
-        <v>94</v>
-      </c>
-      <c r="D37" t="s">
-        <v>96</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>95</v>
-      </c>
       <c r="F37" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="G37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
         <v>7</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" t="s">
+        <v>60</v>
+      </c>
+      <c r="D38" t="s">
         <v>61</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>62</v>
       </c>
-      <c r="D38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
+        <v>201</v>
+      </c>
+      <c r="G38" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="B39" s="12"/>
+    </row>
+    <row r="40" spans="1:7" ht="6.75" customHeight="1">
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="1:7" hidden="1">
+      <c r="B41" s="12"/>
+    </row>
+    <row r="42" spans="1:7" hidden="1">
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="1:7" hidden="1">
+      <c r="B43" s="12"/>
+    </row>
+    <row r="44" spans="1:7" hidden="1">
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="29.25" customHeight="1">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C46" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="F38" t="s">
-        <v>203</v>
-      </c>
-      <c r="G38" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="B39" s="17"/>
-    </row>
-    <row r="40" spans="1:7" ht="6.75" customHeight="1">
-      <c r="B40" s="17"/>
-    </row>
-    <row r="41" spans="1:7" hidden="1">
-      <c r="B41" s="17"/>
-    </row>
-    <row r="42" spans="1:7" hidden="1">
-      <c r="B42" s="17"/>
-    </row>
-    <row r="43" spans="1:7" hidden="1">
-      <c r="B43" s="17"/>
-    </row>
-    <row r="44" spans="1:7" hidden="1">
-      <c r="B44" s="10"/>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="29.25" customHeight="1">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C46:E46"/>
     <mergeCell ref="F30:G30"/>
     <mergeCell ref="F34:G36"/>
     <mergeCell ref="D11:D12"/>
@@ -2097,7 +2130,6 @@
     <mergeCell ref="E15:E21"/>
     <mergeCell ref="A15:A21"/>
     <mergeCell ref="E34:E36"/>
-    <mergeCell ref="C46:E46"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2110,7 +2142,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F6" sqref="F6:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2123,133 +2155,133 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B3" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B4" s="17">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B3" s="22" t="s">
+      <c r="D4" s="17">
+        <v>5</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B4" s="23">
+      <c r="F4" s="17">
         <v>0</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="G4" s="17">
+        <v>1</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="23">
-        <v>5</v>
-      </c>
-      <c r="E4" s="23" t="s">
+      <c r="I4" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="23">
+      <c r="J4" s="17">
         <v>0</v>
       </c>
-      <c r="G4" s="23">
+      <c r="K4" s="17">
+        <v>0</v>
+      </c>
+      <c r="L4" s="17">
+        <v>0</v>
+      </c>
+      <c r="M4" s="17">
         <v>1</v>
       </c>
-      <c r="H4" s="23" t="s">
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B5" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="23" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="J4" s="23">
-        <v>0</v>
-      </c>
-      <c r="K4" s="23">
-        <v>0</v>
-      </c>
-      <c r="L4" s="23">
-        <v>0</v>
-      </c>
-      <c r="M4" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1">
-      <c r="B5" s="22" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22" t="s">
+      <c r="G5" s="28"/>
+      <c r="H5" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22" t="s">
+      <c r="I5" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23" t="s">
+      <c r="J5" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="28"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28" t="s">
         <v>108</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="B6" s="22" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22" t="s">
+      <c r="G6" s="28"/>
+      <c r="H6" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
+      <c r="I6" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22" t="s">
+      <c r="J6" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="I6" s="22" t="s">
-        <v>113</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>114</v>
-      </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="1:13" ht="32.25" customHeight="1">
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2274,35 +2306,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J51"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" customWidth="1"/>
     <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="11" customWidth="1"/>
-    <col min="6" max="6" width="46.125" style="27" customWidth="1"/>
-    <col min="7" max="7" width="6.875" style="24" customWidth="1"/>
-    <col min="8" max="8" width="27" customWidth="1"/>
-    <col min="9" max="9" width="44.625" customWidth="1"/>
+    <col min="5" max="5" width="22.5" style="10" customWidth="1"/>
+    <col min="6" max="6" width="59.125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="18" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="52.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>130</v>
+        <v>135</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -2310,91 +2343,91 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="27">
       <c r="C3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3">
         <v>7</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="27" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="E3" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="27">
       <c r="C4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D4">
         <v>20</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>139</v>
+      <c r="E4" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="C5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5">
         <v>12</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="27" t="s">
+      <c r="E5" s="10" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="F5" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="27">
       <c r="C6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="E6" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="27">
       <c r="C7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="E7" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="27">
       <c r="C8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>144</v>
+      <c r="E8" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2402,35 +2435,35 @@
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="C11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>178</v>
+      <c r="E11" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>176</v>
       </c>
       <c r="H11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="C12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="F12" s="21" t="s">
         <v>180</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="F12" s="27" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2438,212 +2471,212 @@
         <v>2.1</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
-      </c>
-      <c r="D14" s="26">
+        <v>143</v>
+      </c>
+      <c r="D14" s="20">
         <f>SUM(D15:D25)</f>
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" ht="40.5">
       <c r="C15" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="G15" s="24" t="s">
-        <v>149</v>
+      <c r="E15" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="C16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D16">
         <v>8</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>152</v>
+      <c r="E16" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>150</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I16" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="27">
+    </row>
+    <row r="17" spans="1:10" ht="40.5">
       <c r="C17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F17" s="27" t="s">
-        <v>154</v>
+      <c r="E17" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>152</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="40.5">
       <c r="C18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>156</v>
+      <c r="E18" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>154</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="C19" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D19">
         <v>11</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>158</v>
+      <c r="E19" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="C20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D20">
         <v>8</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>160</v>
+      <c r="E20" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="C21" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D21">
         <v>8</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>160</v>
+      <c r="E21" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>158</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="C22" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D22">
         <v>8</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>163</v>
+      <c r="E22" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="C23" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D23">
         <v>30</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F23" s="27" t="s">
-        <v>165</v>
+      <c r="E23" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="C24" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>167</v>
+      <c r="E24" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="C25" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D25">
         <v>50</v>
       </c>
-      <c r="F25" s="27" t="s">
-        <v>169</v>
+      <c r="F25" s="21" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2651,67 +2684,67 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="26">
+        <v>144</v>
+      </c>
+      <c r="D27" s="20">
         <f>SUM(D28:D31)</f>
         <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="C28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="E28" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="27">
       <c r="C29" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D29">
         <v>50</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>173</v>
+      <c r="E29" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="C30" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="E30" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="27">
       <c r="C31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D31">
         <v>50</v>
       </c>
-      <c r="E31" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F31" s="27" t="s">
-        <v>173</v>
+      <c r="E31" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2719,22 +2752,22 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B33" t="s">
-        <v>147</v>
-      </c>
-      <c r="D33" s="26">
+        <v>145</v>
+      </c>
+      <c r="D33" s="20">
         <f>SUM(D34)</f>
         <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="C34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D34">
         <v>100</v>
       </c>
-      <c r="E34" s="11" t="s">
-        <v>172</v>
+      <c r="E34" s="10" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2742,105 +2775,105 @@
         <v>3</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="27">
       <c r="C38" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>192</v>
+      <c r="E38" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F38" s="21" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="C39" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F39" s="28" t="s">
-        <v>194</v>
+      <c r="E39" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="C40" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D40">
         <v>7</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F40" s="28"/>
+      <c r="E40" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F40" s="29"/>
     </row>
     <row r="41" spans="1:6">
       <c r="C41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D41">
         <v>40</v>
       </c>
-      <c r="E41" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F41" s="28"/>
+      <c r="E41" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F41" s="29"/>
     </row>
     <row r="42" spans="1:6">
       <c r="C42" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>194</v>
+      <c r="E42" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F42" s="29" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="C43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D43">
         <v>7</v>
       </c>
-      <c r="E43" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F43" s="28"/>
+      <c r="E43" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F43" s="29"/>
     </row>
     <row r="44" spans="1:6">
       <c r="C44" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D44">
         <v>40</v>
       </c>
-      <c r="E44" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F44" s="28"/>
+      <c r="E44" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F44" s="29"/>
     </row>
     <row r="45" spans="1:6">
       <c r="D45" t="s">
-        <v>190</v>
-      </c>
-      <c r="F45" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2848,54 +2881,54 @@
         <v>4</v>
       </c>
       <c r="B47" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="C48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" s="11" t="s">
-        <v>187</v>
+      <c r="E48" s="10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="3:6">
       <c r="C49" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49" s="11" t="s">
-        <v>187</v>
+      <c r="E49" s="10" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="3:6">
       <c r="C50" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D50">
         <v>2</v>
       </c>
-      <c r="E50" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="51" spans="3:6">
+      <c r="E50" s="10" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" ht="27">
       <c r="C51" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F51" s="21" t="s">
         <v>211</v>
-      </c>
-      <c r="D51" t="s">
-        <v>212</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F51" s="27" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2906,4 +2939,48 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="39.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>